--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1495.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1495.xlsx
@@ -354,7 +354,7 @@
         <v>1.888394249530722</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.118755197582443</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1495.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1495.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.265983776643443</v>
+        <v>1.619706153869629</v>
       </c>
       <c r="B1">
-        <v>1.888394249530722</v>
+        <v>4.114301204681396</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.815733909606934</v>
       </c>
       <c r="D1">
-        <v>2.118755197582443</v>
+        <v>1.024818778038025</v>
       </c>
       <c r="E1">
-        <v>0.9220143676654754</v>
+        <v>0.8866534829139709</v>
       </c>
     </row>
   </sheetData>
